--- a/Ejercicios y Resultados.xlsx
+++ b/Ejercicios y Resultados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\repoCursoJava\JavaIndra\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Datos Asistentes</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Docente:  Lucas Goicoechea</t>
+  </si>
+  <si>
+    <t>Luis Miguel Saez Iñiguez</t>
   </si>
 </sst>
 </file>
@@ -526,10 +529,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="B20" sqref="B20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -850,7 +853,7 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -868,14 +871,14 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="8">
@@ -886,21 +889,29 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="9"/>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="8">
+        <v>9</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="C21" s="12"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -949,7 +960,14 @@
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C26" s="13"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C27" s="13"/>
@@ -3872,6 +3890,9 @@
     </row>
     <row r="1000" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C1000" s="13"/>
+    </row>
+    <row r="1001" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C1001" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
